--- a/biology/Médecine/Muscle_bulbo-spongieux/Muscle_bulbo-spongieux.xlsx
+++ b/biology/Médecine/Muscle_bulbo-spongieux/Muscle_bulbo-spongieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle bulbo-spongieux (ou bulbo-caverneux) est un muscle du périnée présent bien que différent chez les deux sexes, où il recouvre le bulbe du pénis chez l'homme ou du vestibule du vagin chez la femme.
 Il se nomme aussi muscle constricteur du vagin ou muscle orbiculaire du vagin chez la femme.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'homme, le muscle bulbo-spongieux est situé sur la ligne médiane et forme deux parties séparées par un raphé médian. Les fibres musculaires ont pour origine le centre tendineux du périnée, le muscle transverse superficiel du périnée et le sphincter externe de l'anus. Elles se dirigent de chaque côté du raphé à la manière des barbes d'une plume. Une portion postérieure mineure rejoint la membrane périnéale. Une portion moyenne encercle le bulbe du pénis et rejoint sa partie dorsale. Une portion antérieure s'étend de chaque côté des corps caverneux.
 Chez la femme, le muscle bulbo-spongieux est constitué de deux parties séparées recouvrant le bulbe du vestibule et les glandes vestibulaires majeures. Les fibres sont issues du centre tendineux du périnée et se dirigent en avant de chaque côté du vagin vers les corps caverneux et le dos du clitoris.
@@ -544,7 +558,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle bulbo-spongieux est innervé par une branche du nerf périnéal, lui-même issu du nerf pudendal.
 </t>
@@ -575,7 +591,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle bulbo-spongieux a pour action de fournir une aide à la vidange de l'urètre après la miction. Chez l'homme, il peut jouer un rôle au cours de la phase finale de l'érection et au cours de l'éjaculation. Chez la femme, il permet de resserrer l'orifice externe du vagin, d'évacuer les sécrétions des glandes vestibulaires majeures et de participer à l'érection du clitoris.
 </t>
